--- a/16 bit computer cost sheet(AutoRecovered).xlsx
+++ b/16 bit computer cost sheet(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inksd\Desktop\16 bit computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761F344F-3DF6-4470-89BC-0C0C08967521}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204F1873-4D07-475B-95BF-029F05D5BD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED20448B-0459-4D4E-B19E-DE67C14783DA}"/>
   </bookViews>
@@ -663,8 +663,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBD78BC-5E6B-496D-B720-88D78F8A111E}">
   <dimension ref="B4:W107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A75" workbookViewId="0">
-      <selection activeCell="L97" sqref="L97"/>
+    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
+      <selection activeCell="L93" sqref="L93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1199,7 +1199,7 @@
         <v>0.69</v>
       </c>
       <c r="G84" s="7">
-        <f t="shared" ref="G84:G94" si="2">(C84*F84)</f>
+        <f t="shared" ref="G84:G90" si="2">(C84*F84)</f>
         <v>7.59</v>
       </c>
       <c r="I84" t="s">

--- a/16 bit computer cost sheet(AutoRecovered).xlsx
+++ b/16 bit computer cost sheet(AutoRecovered).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inksd\Desktop\16 bit computer\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{204F1873-4D07-475B-95BF-029F05D5BD3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74016FF5-7275-46A6-96F9-B374F1ED2A48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ED20448B-0459-4D4E-B19E-DE67C14783DA}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="75">
   <si>
     <t xml:space="preserve">wire </t>
   </si>
@@ -90,9 +90,6 @@
     <t>Items bought</t>
   </si>
   <si>
-    <t>no</t>
-  </si>
-  <si>
     <t>wire spools</t>
   </si>
   <si>
@@ -165,9 +162,6 @@
     <t xml:space="preserve">hex inverter </t>
   </si>
   <si>
-    <t>https://www.jameco.com/Jameco/Products/ProdDS/46316FSC.pdf</t>
-  </si>
-  <si>
     <t>quad and gate ( 46375 )</t>
   </si>
   <si>
@@ -189,12 +183,6 @@
     <t xml:space="preserve">quad nor </t>
   </si>
   <si>
-    <t xml:space="preserve">TOTAL COST: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GRAND TOTAL: </t>
-  </si>
-  <si>
     <t>octal bus transfer</t>
   </si>
   <si>
@@ -223,6 +211,54 @@
   </si>
   <si>
     <t>eeprom(16 addr)</t>
+  </si>
+  <si>
+    <t>https://www.jameco.com/z/74LS32-Major-Brands-IC-74LS32-Quad-2-Input-Positive-OR-Gate_47466.html</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total bought items </t>
+  </si>
+  <si>
+    <t>items possessed</t>
+  </si>
+  <si>
+    <t>item ▲</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Items needed </t>
+  </si>
+  <si>
+    <t>price</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>https://www.jameco.com/webapp/wcs/stores/servlet/ProductDisplay?storeId=10001&amp;langId=-1&amp;catalogId=10001&amp;productId=46316&amp;avad=234285_d2362cab9&amp;source=Avantlink</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TOTAL PREDICTED COST: </t>
+  </si>
+  <si>
+    <t>TOTAL COST WITH TAX:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDICTED GRAND TOTAL: </t>
+  </si>
+  <si>
+    <t xml:space="preserve">JAMECO ORDER NUMBER: </t>
+  </si>
+  <si>
+    <t>#20779011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PREDICTED TOTAL COST: </t>
+  </si>
+  <si>
+    <t>ACTUAL TOTAL COST:</t>
+  </si>
+  <si>
+    <t>ACTUAL TOTAL COST(so far):</t>
   </si>
 </sst>
 </file>
@@ -232,7 +268,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -307,6 +343,13 @@
       <name val="Open Sans"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -329,7 +372,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="8" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -344,6 +387,10 @@
     <xf numFmtId="8" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -663,8 +710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EBD78BC-5E6B-496D-B720-88D78F8A111E}">
   <dimension ref="B4:W107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="L93" sqref="L93"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="S57" sqref="S57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,10 +723,10 @@
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="2:9" ht="17.399999999999999" x14ac:dyDescent="0.3">
@@ -763,7 +810,7 @@
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="2">
-        <f t="shared" ref="G10:G23" si="1">(E10*C10)</f>
+        <f t="shared" ref="G10:G22" si="1">(E10*C10)</f>
         <v>1</v>
       </c>
       <c r="I10" s="4" t="s">
@@ -778,7 +825,7 @@
         <v>1</v>
       </c>
       <c r="D11" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E11">
         <v>1</v>
@@ -800,7 +847,7 @@
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>8</v>
@@ -810,7 +857,7 @@
         <v>8</v>
       </c>
       <c r="I12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
@@ -821,7 +868,7 @@
         <v>1</v>
       </c>
       <c r="D13" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -831,7 +878,7 @@
         <v>1</v>
       </c>
       <c r="I13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
@@ -842,17 +889,16 @@
         <v>4</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14">
         <v>4</v>
       </c>
       <c r="G14" s="2">
-        <f t="shared" si="1"/>
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="I14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
@@ -863,7 +909,7 @@
         <v>3</v>
       </c>
       <c r="D15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -873,7 +919,7 @@
         <v>3</v>
       </c>
       <c r="I15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
@@ -884,17 +930,16 @@
         <v>1</v>
       </c>
       <c r="D16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E16">
+        <v>4</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="E16">
-        <v>4</v>
-      </c>
-      <c r="G16" s="2">
-        <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-      <c r="I16" s="4" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
@@ -905,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="D17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E17">
         <v>4</v>
@@ -915,7 +960,7 @@
         <v>12</v>
       </c>
       <c r="I17" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
@@ -926,17 +971,16 @@
         <v>8</v>
       </c>
       <c r="D18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E18">
         <v>4</v>
       </c>
       <c r="G18" s="2">
-        <f t="shared" si="1"/>
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="I18" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
@@ -947,7 +991,7 @@
         <v>2</v>
       </c>
       <c r="D19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -957,7 +1001,7 @@
         <v>2</v>
       </c>
       <c r="I19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
@@ -968,7 +1012,7 @@
         <v>1</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E20">
         <v>1</v>
@@ -978,7 +1022,7 @@
         <v>1</v>
       </c>
       <c r="I20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
@@ -989,17 +1033,16 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E21">
         <v>6</v>
       </c>
       <c r="G21" s="2">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="I21" s="4" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
@@ -1010,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="D22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E22">
         <v>1</v>
@@ -1019,8 +1062,8 @@
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="I22" t="s">
-        <v>46</v>
+      <c r="I22" s="4" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
@@ -1031,49 +1074,58 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E23">
         <v>8</v>
       </c>
       <c r="G23" s="2">
-        <f t="shared" si="1"/>
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I23" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
       <c r="D24" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="52" spans="2:11" ht="31.2" x14ac:dyDescent="0.6">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="52" spans="2:17" ht="31.2" x14ac:dyDescent="0.6">
       <c r="B52" s="9" t="s">
         <v>10</v>
       </c>
       <c r="I52" t="s">
-        <v>52</v>
-      </c>
-      <c r="K52" s="7">
-        <f>H56+G78</f>
-        <v>132</v>
-      </c>
-    </row>
-    <row r="56" spans="2:11" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+        <v>69</v>
+      </c>
+      <c r="L52" s="7">
+        <f>I56+H74</f>
+        <v>124.53999999999999</v>
+      </c>
+      <c r="N52" t="s">
+        <v>74</v>
+      </c>
+      <c r="Q52" s="7">
+        <f>M74+I56</f>
+        <v>139.78</v>
+      </c>
+    </row>
+    <row r="56" spans="2:17" ht="28.8" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="8" t="s">
         <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>51</v>
-      </c>
-      <c r="H56" s="7">
+        <v>72</v>
+      </c>
+      <c r="I56" s="7">
         <f>SUM(H62:H72)</f>
         <v>86.95</v>
       </c>
-    </row>
-    <row r="60" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K56" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="60" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
         <v>16</v>
       </c>
@@ -1084,9 +1136,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="62" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C62">
         <v>5</v>
@@ -1100,7 +1152,7 @@
       <c r="G62" s="10">
         <v>10</v>
       </c>
-      <c r="H62" s="7">
+      <c r="H62">
         <f>(C62*G62)</f>
         <v>50</v>
       </c>
@@ -1108,15 +1160,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:17" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
+        <v>65</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63" t="s">
         <v>18</v>
-      </c>
-      <c r="C63">
-        <v>1</v>
-      </c>
-      <c r="D63" t="s">
-        <v>19</v>
       </c>
       <c r="F63">
         <v>6</v>
@@ -1128,45 +1180,75 @@
         <f>(C63*G63)</f>
         <v>36.950000000000003</v>
       </c>
-      <c r="I63" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="64" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="I63" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="2:17" x14ac:dyDescent="0.3">
       <c r="H64" s="7"/>
     </row>
-    <row r="78" spans="2:7" ht="28.8" x14ac:dyDescent="0.55000000000000004">
-      <c r="B78" s="8" t="s">
+    <row r="74" spans="2:13" ht="28.8" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="E78" t="s">
-        <v>51</v>
-      </c>
-      <c r="G78" s="7">
-        <f>SUM(G83:G100)</f>
-        <v>45.05</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
+      <c r="E74" t="s">
+        <v>67</v>
+      </c>
+      <c r="H74" s="7">
+        <f>SUM(K83:K100)</f>
+        <v>37.589999999999996</v>
+      </c>
+      <c r="J74" t="s">
+        <v>68</v>
+      </c>
+      <c r="M74">
+        <f>(89.78-36.95)</f>
+        <v>52.83</v>
+      </c>
+    </row>
+    <row r="77" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
         <v>16</v>
       </c>
-      <c r="C81" t="s">
+      <c r="C77" t="s">
         <v>17</v>
       </c>
-      <c r="E81" t="s">
+      <c r="E77" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" ht="21" x14ac:dyDescent="0.5">
+      <c r="G77" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="78" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="H78" s="14" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="79" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="I79" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="80" spans="2:13" x14ac:dyDescent="0.3">
+      <c r="J80" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="81" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K81" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="83" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B83" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C83">
         <v>12</v>
       </c>
       <c r="D83" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E83">
         <v>4</v>
@@ -1174,23 +1256,38 @@
       <c r="F83" s="11">
         <v>0.95</v>
       </c>
-      <c r="G83" s="7">
-        <f>(C83*F83)</f>
+      <c r="G83">
+        <f>(E83*C83)</f>
+        <v>48</v>
+      </c>
+      <c r="H83">
+        <v>0</v>
+      </c>
+      <c r="I83">
+        <f>(G83-H83)</f>
+        <v>48</v>
+      </c>
+      <c r="J83">
+        <f>(I83/E83)</f>
+        <v>12</v>
+      </c>
+      <c r="K83" s="7">
+        <f>(J83*F83)</f>
         <v>11.399999999999999</v>
       </c>
-      <c r="I83" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" ht="21" x14ac:dyDescent="0.5">
+      <c r="L83" s="4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="2:12" ht="21" x14ac:dyDescent="0.5">
       <c r="B84" t="s">
-        <v>18</v>
+        <v>65</v>
       </c>
       <c r="C84">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D84" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E84">
         <v>4</v>
@@ -1198,20 +1295,38 @@
       <c r="F84" s="11">
         <v>0.69</v>
       </c>
-      <c r="G84" s="7">
-        <f t="shared" ref="G84:G90" si="2">(C84*F84)</f>
-        <v>7.59</v>
-      </c>
-      <c r="I84" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" ht="21" x14ac:dyDescent="0.5">
+      <c r="G84">
+        <f t="shared" ref="G84:G91" si="2">(E84*C84)</f>
+        <v>48</v>
+      </c>
+      <c r="H84">
+        <v>32</v>
+      </c>
+      <c r="I84">
+        <f>(G84-H84)</f>
+        <v>16</v>
+      </c>
+      <c r="J84">
+        <f t="shared" ref="J84:J90" si="3">(I84/E84)</f>
+        <v>4</v>
+      </c>
+      <c r="K84" s="7">
+        <f t="shared" ref="K84:K91" si="4">(J84*F84)</f>
+        <v>2.76</v>
+      </c>
+      <c r="L84" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="85" spans="2:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="B85" t="s">
+        <v>65</v>
+      </c>
       <c r="C85">
         <v>2</v>
       </c>
       <c r="D85" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="E85">
         <v>4</v>
@@ -1219,20 +1334,38 @@
       <c r="F85" s="11">
         <v>0.65</v>
       </c>
-      <c r="G85" s="7">
+      <c r="G85">
         <f t="shared" si="2"/>
-        <v>1.3</v>
-      </c>
-      <c r="I85" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="86" spans="2:9" ht="21" x14ac:dyDescent="0.5">
+        <v>8</v>
+      </c>
+      <c r="H85">
+        <v>4</v>
+      </c>
+      <c r="I85">
+        <f>(G85-H85)</f>
+        <v>4</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K85" s="7">
+        <f t="shared" si="4"/>
+        <v>0.65</v>
+      </c>
+      <c r="L85" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="86" spans="2:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="B86" t="s">
+        <v>65</v>
+      </c>
       <c r="C86">
         <v>6</v>
       </c>
       <c r="D86" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="E86">
         <v>8</v>
@@ -1240,20 +1373,38 @@
       <c r="F86" s="11">
         <v>0.89</v>
       </c>
-      <c r="G86" s="7">
+      <c r="G86">
         <f t="shared" si="2"/>
-        <v>5.34</v>
-      </c>
-      <c r="I86" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="87" spans="2:9" ht="21" x14ac:dyDescent="0.5">
+      <c r="H86">
+        <v>24</v>
+      </c>
+      <c r="I86">
+        <f t="shared" ref="I86:I91" si="5">(G86-H86)</f>
+        <v>24</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="K86" s="7">
+        <f t="shared" si="4"/>
+        <v>2.67</v>
+      </c>
+      <c r="L86" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="87" spans="2:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="B87" t="s">
+        <v>65</v>
+      </c>
       <c r="C87">
         <v>1</v>
       </c>
       <c r="D87" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -1261,20 +1412,38 @@
       <c r="F87" s="12">
         <v>1.49</v>
       </c>
-      <c r="G87" s="7">
-        <f>(C87*F87)</f>
+      <c r="G87">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H87">
+        <v>0</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="K87" s="7">
+        <f t="shared" si="4"/>
         <v>1.49</v>
       </c>
-      <c r="I87" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" ht="21" x14ac:dyDescent="0.5">
+      <c r="L87" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="88" spans="2:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="B88" t="s">
+        <v>65</v>
+      </c>
       <c r="C88">
         <v>4</v>
       </c>
       <c r="D88" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -1282,20 +1451,38 @@
       <c r="F88" s="11">
         <v>1.49</v>
       </c>
-      <c r="G88" s="7">
+      <c r="G88">
         <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H88">
+        <v>0</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="5"/>
+        <v>4</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="K88" s="7">
+        <f t="shared" si="4"/>
         <v>5.96</v>
       </c>
-      <c r="I88" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" ht="21" x14ac:dyDescent="0.5">
+      <c r="L88" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="89" spans="2:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="B89" t="s">
+        <v>65</v>
+      </c>
       <c r="C89">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D89" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E89">
         <v>7</v>
@@ -1303,45 +1490,123 @@
       <c r="F89" s="11">
         <v>0.69</v>
       </c>
-      <c r="G89" s="7">
+      <c r="G89">
         <f t="shared" si="2"/>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="I89" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" ht="21" x14ac:dyDescent="0.5">
+        <v>28</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="5"/>
+        <v>22</v>
+      </c>
+      <c r="J89">
+        <f>4</f>
+        <v>4</v>
+      </c>
+      <c r="K89" s="7">
+        <f t="shared" si="4"/>
+        <v>2.76</v>
+      </c>
+      <c r="L89" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="90" spans="2:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="B90" t="s">
+        <v>65</v>
+      </c>
       <c r="C90">
         <v>2</v>
       </c>
       <c r="D90" t="s">
-        <v>62</v>
+        <v>58</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
       </c>
       <c r="F90" s="11">
         <v>4.95</v>
       </c>
-      <c r="G90" s="7">
+      <c r="G90">
         <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="H90">
+        <v>0</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="K90" s="7">
+        <f t="shared" si="4"/>
         <v>9.9</v>
       </c>
-      <c r="I90" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G91" s="7"/>
-    </row>
-    <row r="92" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="G92" s="7"/>
-    </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="L90" s="4" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="91" spans="2:12" ht="21" x14ac:dyDescent="0.5">
+      <c r="B91" t="s">
+        <v>65</v>
+      </c>
+      <c r="C91">
+        <v>1</v>
+      </c>
+      <c r="D91" t="s">
+        <v>28</v>
+      </c>
+      <c r="E91">
+        <v>4</v>
+      </c>
+      <c r="F91" s="11">
+        <v>0.59</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+      <c r="H91">
+        <v>16</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="5"/>
+        <v>-12</v>
+      </c>
+      <c r="J91">
+        <f>0</f>
+        <v>0</v>
+      </c>
+      <c r="K91" s="7">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L91" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="92" spans="2:12" x14ac:dyDescent="0.3">
+      <c r="K92" s="7"/>
+    </row>
+    <row r="93" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G93" s="7"/>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:12" x14ac:dyDescent="0.3">
       <c r="G94" s="7"/>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:12" ht="42" x14ac:dyDescent="0.3">
+      <c r="B95" t="s">
+        <v>70</v>
+      </c>
+      <c r="E95" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="G95" s="7"/>
     </row>
     <row r="107" spans="23:23" ht="26.4" x14ac:dyDescent="0.3">
@@ -1358,11 +1623,21 @@
     <hyperlink ref="I12" r:id="rId7" xr:uid="{1EC2D199-F880-428E-8F29-1722C3582B0D}"/>
     <hyperlink ref="I18" r:id="rId8" xr:uid="{99DBFFAE-A2E5-40BC-BA61-9C7336497A45}"/>
     <hyperlink ref="I16" r:id="rId9" xr:uid="{067DC990-D155-4FBF-86D5-E323AFBDDD04}"/>
-    <hyperlink ref="I85" r:id="rId10" xr:uid="{93065FEC-7878-4283-BEF5-406A7BFAD81E}"/>
+    <hyperlink ref="L85" r:id="rId10" xr:uid="{93065FEC-7878-4283-BEF5-406A7BFAD81E}"/>
     <hyperlink ref="I23" r:id="rId11" xr:uid="{7543CAC0-A254-4A92-9C28-C1E655E6BBD7}"/>
     <hyperlink ref="I21" r:id="rId12" xr:uid="{D413D531-2D9E-4EDB-802E-9A03D26CC2D3}"/>
+    <hyperlink ref="L83" r:id="rId13" xr:uid="{D5B0A7B6-8BE7-430F-B6E2-B667EB32316A}"/>
+    <hyperlink ref="I63" r:id="rId14" xr:uid="{8537F38D-2766-40DF-823C-762CECE3C5A1}"/>
+    <hyperlink ref="L84" r:id="rId15" xr:uid="{E3096861-BF68-45E3-AE70-0EDB503DB402}"/>
+    <hyperlink ref="L86" r:id="rId16" xr:uid="{CBB9EBBE-0C81-452F-BA76-5AD1486C3C6A}"/>
+    <hyperlink ref="L87" r:id="rId17" xr:uid="{95CA3068-72A5-4154-902A-1E3B3D1B56F6}"/>
+    <hyperlink ref="L88" r:id="rId18" xr:uid="{17159313-A11E-494C-AAF4-93B8C6D2CC31}"/>
+    <hyperlink ref="L89" r:id="rId19" xr:uid="{D4E483A4-C48F-4F6C-A3DC-027D1AB0C1F0}"/>
+    <hyperlink ref="I22" r:id="rId20" xr:uid="{071147B7-11B5-467E-96DD-70819965B104}"/>
+    <hyperlink ref="L90" r:id="rId21" xr:uid="{BD69C481-7DA2-4C3A-8539-67DCFCF61CC0}"/>
+    <hyperlink ref="L91" r:id="rId22" xr:uid="{8BA297A6-FC73-4956-B59B-B4F77212A0C8}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId13"/>
+  <pageSetup orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>